--- a/ISA/dual_momentum_out/dualmo_report_2025-11.xlsx
+++ b/ISA/dual_momentum_out/dualmo_report_2025-11.xlsx
@@ -468,7 +468,7 @@
   <cols>
     <col width="36" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="22" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
@@ -485,7 +485,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>이번달 실제 투자 대상: KODEX MSCI선진국(251350) 100%  |  결정근거: [룰1] SPY(12M=21.40%) &gt; BIL(12M=4.30%) → SPY vs EFA 중 더 높은 12M → EFA</t>
+          <t>이번달 실제 투자 대상: KODEX MSCI선진국(251350) 100%  |  결정근거: [룰1] SPY(12M=14.79%) &gt; BIL(12M=3.93%) → SPY vs EFA 중 더 높은 12M → EFA</t>
         </is>
       </c>
     </row>
@@ -519,7 +519,7 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.214</v>
+        <v>0.1479</v>
       </c>
     </row>
     <row r="7">
@@ -534,7 +534,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.2299</v>
+        <v>0.2344</v>
       </c>
     </row>
     <row r="8">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.043</v>
+        <v>0.0393</v>
       </c>
     </row>
     <row r="9">
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.062</v>
+        <v>0.0491</v>
       </c>
     </row>
   </sheetData>
@@ -596,7 +596,7 @@
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="21" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="G4" s="5" t="n">
-        <v>0.2299</v>
+        <v>0.2344</v>
       </c>
     </row>
   </sheetData>
@@ -704,7 +704,7 @@
     <col width="11" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="21" customWidth="1" min="6" max="6"/>
+    <col width="22" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1">
@@ -766,7 +766,7 @@
       <c r="D4" s="4" t="n"/>
       <c r="E4" s="4" t="n"/>
       <c r="F4" s="5" t="n">
-        <v>0.214</v>
+        <v>0.1479</v>
       </c>
     </row>
     <row r="5">
@@ -788,7 +788,7 @@
       <c r="D5" s="4" t="n"/>
       <c r="E5" s="4" t="n"/>
       <c r="F5" s="5" t="n">
-        <v>0.2299</v>
+        <v>0.2344</v>
       </c>
     </row>
     <row r="6">
@@ -810,7 +810,7 @@
       <c r="D6" s="4" t="n"/>
       <c r="E6" s="4" t="n"/>
       <c r="F6" s="5" t="n">
-        <v>0.043</v>
+        <v>0.0393</v>
       </c>
     </row>
     <row r="7">
@@ -832,7 +832,7 @@
       <c r="D7" s="4" t="n"/>
       <c r="E7" s="4" t="n"/>
       <c r="F7" s="5" t="n">
-        <v>0.062</v>
+        <v>0.0491</v>
       </c>
     </row>
     <row r="8">
@@ -858,7 +858,7 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1762</v>
+        <v>0.1788</v>
       </c>
     </row>
     <row r="9">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1935</v>
+        <v>0.1955</v>
       </c>
     </row>
     <row r="10">
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.0317</v>
+        <v>0.029</v>
       </c>
     </row>
   </sheetData>
@@ -936,7 +936,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="43" customWidth="1" min="1" max="1"/>
-    <col width="21" customWidth="1" min="2" max="2"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
     <col width="22" customWidth="1" min="3" max="3"/>
     <col width="21" customWidth="1" min="4" max="4"/>
     <col width="22" customWidth="1" min="5" max="5"/>
@@ -1000,19 +1000,19 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>-0.3268</v>
+        <v>-0.2582</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.38</v>
+        <v>-3.89</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.035</v>
+        <v>-0.262</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>4.556</v>
+        <v>4.397</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>15.781</v>
+        <v>15.232</v>
       </c>
     </row>
     <row r="7">
@@ -1022,19 +1022,19 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>-0.0224</v>
+        <v>-0.137</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>23.17</v>
+        <v>25.85</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.593</v>
+        <v>0.714</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>4.218</v>
+        <v>4.163</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>14.611</v>
+        <v>14.421</v>
       </c>
     </row>
     <row r="8">
@@ -1044,19 +1044,19 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.2507</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>4.62</v>
+        <v>32.27</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.047</v>
+        <v>0.526</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>5.063</v>
+        <v>4.141</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>17.538</v>
+        <v>14.345</v>
       </c>
     </row>
     <row r="9"/>
@@ -1093,7 +1093,7 @@
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>13723922.98850575</v>
+        <v>13821172.94117647</v>
       </c>
       <c r="C14" s="4" t="n">
         <v>12302700</v>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>62135.65853658537</v>
+        <v>62196.15853658537</v>
       </c>
       <c r="C15" s="4" t="n">
         <v>51988.5</v>
@@ -1142,469 +1142,469 @@
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="B21" s="6" t="n">
-        <v>13.16808180860036</v>
+        <v>-1.812891207144307</v>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-3.775383361885265</v>
+        <v>-6.704753989886337</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="B22" s="6" t="n">
-        <v>-1.812897268249425</v>
+        <v>9.003663933124507</v>
       </c>
       <c r="C22" s="6" t="n">
-        <v>-6.704743938338986</v>
+        <v>4.338600339593701</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2023-02</t>
         </is>
       </c>
       <c r="B23" s="6" t="n">
-        <v>9.003663933124507</v>
+        <v>-3.074777851706734</v>
       </c>
       <c r="C23" s="6" t="n">
-        <v>4.338556776514935</v>
+        <v>5.714266537592771</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="B24" s="6" t="n">
-        <v>-3.074777851706734</v>
+        <v>3.129046447504713</v>
       </c>
       <c r="C24" s="6" t="n">
-        <v>5.714309611402779</v>
+        <v>0.04826248226419416</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2023-04</t>
         </is>
       </c>
       <c r="B25" s="6" t="n">
-        <v>3.129046447504713</v>
+        <v>2.936246761237982</v>
       </c>
       <c r="C25" s="6" t="n">
-        <v>0.0482429420399999</v>
+        <v>5.218122513901835</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>2023-04</t>
+          <t>2023-05</t>
         </is>
       </c>
       <c r="B26" s="6" t="n">
-        <v>2.936258301455408</v>
+        <v>-4.007081337395613</v>
       </c>
       <c r="C26" s="6" t="n">
-        <v>5.218123023349497</v>
+        <v>-1.082193641678564</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="B27" s="6" t="n">
-        <v>-4.007080888160419</v>
+        <v>4.470075485021008</v>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-1.082193742093829</v>
+        <v>4.213214435197266</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="B28" s="6" t="n">
-        <v>4.47005160491929</v>
+        <v>2.70343388926122</v>
       </c>
       <c r="C28" s="6" t="n">
-        <v>4.213205450036228</v>
+        <v>-0.1116951249655052</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>2023-07</t>
+          <t>2023-08</t>
         </is>
       </c>
       <c r="B29" s="6" t="n">
-        <v>2.703456550085948</v>
+        <v>-3.934992429462292</v>
       </c>
       <c r="C29" s="6" t="n">
-        <v>-0.1116681416534537</v>
+        <v>2.191425533623192</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>2023-08</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="B30" s="6" t="n">
-        <v>-3.93500288616514</v>
+        <v>-3.648821444859596</v>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2.191416324946838</v>
+        <v>-3.041571586967262</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="B31" s="6" t="n">
-        <v>-3.648821444859596</v>
+        <v>-2.901903603040712</v>
       </c>
       <c r="C31" s="6" t="n">
-        <v>-3.041580404931499</v>
+        <v>-3.532226698474661</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2023-11</t>
         </is>
       </c>
       <c r="B32" s="6" t="n">
-        <v>-2.901903603040712</v>
+        <v>8.218760402611691</v>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-3.532199735966057</v>
+        <v>5.60770739110501</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>2023-11</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="B33" s="6" t="n">
-        <v>8.218748291148191</v>
+        <v>5.350984652444479</v>
       </c>
       <c r="C33" s="6" t="n">
-        <v>5.607687478593482</v>
+        <v>5.421010984835917</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-01</t>
         </is>
       </c>
       <c r="B34" s="6" t="n">
-        <v>5.350996442957889</v>
+        <v>-0.451231160148291</v>
       </c>
       <c r="C34" s="6" t="n">
-        <v>5.421010984835917</v>
+        <v>4.965963542643559</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>2024-01</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="B35" s="6" t="n">
-        <v>-0.451231160148291</v>
+        <v>2.986272048487226</v>
       </c>
       <c r="C35" s="6" t="n">
-        <v>4.965955074704587</v>
+        <v>3.060184134939781</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="B36" s="6" t="n">
-        <v>2.986272048487226</v>
+        <v>3.378649118547727</v>
       </c>
       <c r="C36" s="6" t="n">
-        <v>3.060200516453659</v>
+        <v>5.040053548240198</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="B37" s="6" t="n">
-        <v>3.378649118547727</v>
+        <v>-3.243189063410712</v>
       </c>
       <c r="C37" s="6" t="n">
-        <v>5.040045325942244</v>
+        <v>-0.1635232002406117</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="B38" s="6" t="n">
-        <v>-3.243179040141686</v>
+        <v>5.060187694902596</v>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.1635082958792888</v>
+        <v>2.468226345284008</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="B39" s="6" t="n">
-        <v>5.060176811468087</v>
+        <v>-1.826736963957687</v>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2.468203583651496</v>
+        <v>2.773715609011473</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="B40" s="6" t="n">
-        <v>-1.826736963957687</v>
+        <v>2.591592085032901</v>
       </c>
       <c r="C40" s="6" t="n">
-        <v>2.773715811065203</v>
+        <v>0.3881593776181358</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>2024-07</t>
+          <t>2024-08</t>
         </is>
       </c>
       <c r="B41" s="6" t="n">
-        <v>2.591592085032901</v>
+        <v>3.260329622971669</v>
       </c>
       <c r="C41" s="6" t="n">
-        <v>0.3881594051308168</v>
+        <v>-0.4088146253977687</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-09</t>
         </is>
       </c>
       <c r="B42" s="6" t="n">
-        <v>3.260329622971669</v>
+        <v>0.7833148439300608</v>
       </c>
       <c r="C42" s="6" t="n">
-        <v>-0.4088075936822477</v>
+        <v>1.052998594423271</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="B43" s="6" t="n">
-        <v>0.7833243248649868</v>
+        <v>-5.273222658331722</v>
       </c>
       <c r="C43" s="6" t="n">
-        <v>1.053005683986141</v>
+        <v>4.453586665141929</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="B44" s="6" t="n">
-        <v>-5.273222162266711</v>
+        <v>-0.3155750493020859</v>
       </c>
       <c r="C44" s="6" t="n">
-        <v>4.453586352692218</v>
+        <v>3.542978662697993</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>2024-11</t>
+          <t>2024-12</t>
         </is>
       </c>
       <c r="B45" s="6" t="n">
-        <v>-0.3155849488880147</v>
+        <v>-2.950165161071017</v>
       </c>
       <c r="C45" s="6" t="n">
-        <v>3.542971708172216</v>
+        <v>4.191229504426963</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>2024-12</t>
+          <t>2025-01</t>
         </is>
       </c>
       <c r="B46" s="6" t="n">
-        <v>-2.950165161071017</v>
+        <v>4.800944316802314</v>
       </c>
       <c r="C46" s="6" t="n">
-        <v>4.191216530954422</v>
+        <v>1.880956999902139</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>2025-01</t>
+          <t>2025-02</t>
         </is>
       </c>
       <c r="B47" s="6" t="n">
-        <v>4.800944316802314</v>
+        <v>2.95306149654968</v>
       </c>
       <c r="C47" s="6" t="n">
-        <v>1.880969685710432</v>
+        <v>-1.19047422627242</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>2025-02</t>
+          <t>2025-03</t>
         </is>
       </c>
       <c r="B48" s="6" t="n">
-        <v>2.95306149654968</v>
+        <v>0.1838675841334902</v>
       </c>
       <c r="C48" s="6" t="n">
-        <v>-1.19047422627242</v>
+        <v>-4.428106832701006</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>2025-03</t>
+          <t>2025-04</t>
         </is>
       </c>
       <c r="B49" s="6" t="n">
-        <v>0.1838675841334902</v>
+        <v>3.69509421089973</v>
       </c>
       <c r="C49" s="6" t="n">
-        <v>-4.428100648220179</v>
+        <v>-2.244533165069429</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>2025-04</t>
+          <t>2025-05</t>
         </is>
       </c>
       <c r="B50" s="6" t="n">
-        <v>3.69509421089973</v>
+        <v>4.790557959566821</v>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-2.244545961873756</v>
+        <v>2.959975756362554</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>2025-05</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="B51" s="6" t="n">
-        <v>4.790557959566821</v>
+        <v>2.396213782439482</v>
       </c>
       <c r="C51" s="6" t="n">
-        <v>2.959975952301241</v>
+        <v>2.18882244637757</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="B52" s="6" t="n">
-        <v>2.396213782439482</v>
+        <v>-2.091959681564315</v>
       </c>
       <c r="C52" s="6" t="n">
-        <v>2.188829016402161</v>
+        <v>5.508730771810311</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>2025-07</t>
+          <t>2025-08</t>
         </is>
       </c>
       <c r="B53" s="6" t="n">
-        <v>-2.091959681564315</v>
+        <v>4.524687917913561</v>
       </c>
       <c r="C53" s="6" t="n">
-        <v>5.508730771810311</v>
+        <v>1.704711913007029</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>2025-08</t>
+          <t>2025-09</t>
         </is>
       </c>
       <c r="B54" s="6" t="n">
-        <v>4.524687917913561</v>
+        <v>2.066024617723405</v>
       </c>
       <c r="C54" s="6" t="n">
-        <v>1.704711913007029</v>
+        <v>3.247537918430732</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>2025-10</t>
         </is>
       </c>
       <c r="B55" s="6" t="n">
-        <v>2.066024617723405</v>
+        <v>1.199523491744237</v>
       </c>
       <c r="C55" s="6" t="n">
-        <v>3.247537918430732</v>
+        <v>4.306860243117661</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>2025-11</t>
         </is>
       </c>
       <c r="B56" s="6" t="n">
-        <v>1.199523491744237</v>
+        <v>0.04233349183160318</v>
       </c>
       <c r="C56" s="6" t="n">
-        <v>4.306860243117661</v>
+        <v>0.3344947735191672</v>
       </c>
     </row>
   </sheetData>

--- a/ISA/dual_momentum_out/dualmo_report_2025-11.xlsx
+++ b/ISA/dual_momentum_out/dualmo_report_2025-11.xlsx
@@ -468,7 +468,7 @@
   <cols>
     <col width="36" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="22" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
@@ -485,7 +485,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>이번달 실제 투자 대상: KODEX MSCI선진국(251350) 100%  |  결정근거: [룰1] SPY(12M=14.79%) &gt; BIL(12M=3.93%) → SPY vs EFA 중 더 높은 12M → EFA</t>
+          <t>이번달 실제 투자 대상: KODEX MSCI선진국(251350) 100%  |  결정근거: [룰1] SPY(12M=10.70%) &gt; BIL(12M=4.15%) → SPY vs EFA 중 더 높은 12M → EFA</t>
         </is>
       </c>
     </row>
@@ -519,7 +519,7 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1479</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="7">
@@ -534,7 +534,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.2344</v>
+        <v>0.2098</v>
       </c>
     </row>
     <row r="8">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0393</v>
+        <v>0.0415</v>
       </c>
     </row>
     <row r="9">
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0491</v>
+        <v>0.0527</v>
       </c>
     </row>
   </sheetData>
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="G4" s="5" t="n">
-        <v>0.2344</v>
+        <v>0.2098</v>
       </c>
     </row>
   </sheetData>
@@ -766,7 +766,7 @@
       <c r="D4" s="4" t="n"/>
       <c r="E4" s="4" t="n"/>
       <c r="F4" s="5" t="n">
-        <v>0.1479</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="5">
@@ -788,7 +788,7 @@
       <c r="D5" s="4" t="n"/>
       <c r="E5" s="4" t="n"/>
       <c r="F5" s="5" t="n">
-        <v>0.2344</v>
+        <v>0.2098</v>
       </c>
     </row>
     <row r="6">
@@ -810,7 +810,7 @@
       <c r="D6" s="4" t="n"/>
       <c r="E6" s="4" t="n"/>
       <c r="F6" s="5" t="n">
-        <v>0.0393</v>
+        <v>0.0415</v>
       </c>
     </row>
     <row r="7">
@@ -832,7 +832,7 @@
       <c r="D7" s="4" t="n"/>
       <c r="E7" s="4" t="n"/>
       <c r="F7" s="5" t="n">
-        <v>0.0491</v>
+        <v>0.0527</v>
       </c>
     </row>
     <row r="8">
@@ -858,7 +858,7 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1788</v>
+        <v>0.177</v>
       </c>
     </row>
     <row r="9">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1955</v>
+        <v>0.1961</v>
       </c>
     </row>
     <row r="10">
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.029</v>
+        <v>0.03240000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -936,7 +936,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="43" customWidth="1" min="1" max="1"/>
-    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="21" customWidth="1" min="2" max="2"/>
     <col width="22" customWidth="1" min="3" max="3"/>
     <col width="21" customWidth="1" min="4" max="4"/>
     <col width="22" customWidth="1" min="5" max="5"/>
@@ -1000,19 +1000,19 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>-0.2582</v>
+        <v>-0.2173</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>-3.89</v>
+        <v>-1.37</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>-0.262</v>
+        <v>-0.092</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>4.397</v>
+        <v>4.46</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>15.232</v>
+        <v>15.449</v>
       </c>
     </row>
     <row r="7">
@@ -1022,19 +1022,19 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>-0.137</v>
+        <v>-0.115</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>25.85</v>
+        <v>28.7</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.714</v>
+        <v>0.8</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>4.163</v>
+        <v>4.175</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>14.421</v>
+        <v>14.463</v>
       </c>
     </row>
     <row r="8">
@@ -1044,19 +1044,19 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>0.2507</v>
+        <v>0.2551</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>32.27</v>
+        <v>35.42</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.526</v>
+        <v>0.582</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>4.141</v>
+        <v>4.152</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>14.345</v>
+        <v>14.383</v>
       </c>
     </row>
     <row r="9"/>
@@ -1093,10 +1093,10 @@
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>13821172.94117647</v>
+        <v>14738088.63636364</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>12302700</v>
+        <v>13887450</v>
       </c>
     </row>
     <row r="15">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>62196.15853658537</v>
+        <v>63957.0243902439</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>51988.5</v>
+        <v>53139.5</v>
       </c>
     </row>
     <row r="16"/>
@@ -1149,7 +1149,7 @@
         <v>-1.812891207144307</v>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-6.704753989886337</v>
+        <v>-6.704743938338986</v>
       </c>
     </row>
     <row r="22">
@@ -1162,7 +1162,7 @@
         <v>9.003663933124507</v>
       </c>
       <c r="C22" s="6" t="n">
-        <v>4.338600339593701</v>
+        <v>4.338578324335862</v>
       </c>
     </row>
     <row r="23">
@@ -1175,7 +1175,7 @@
         <v>-3.074777851706734</v>
       </c>
       <c r="C23" s="6" t="n">
-        <v>5.714266537592771</v>
+        <v>5.714277453555594</v>
       </c>
     </row>
     <row r="24">
@@ -1185,10 +1185,10 @@
         </is>
       </c>
       <c r="B24" s="6" t="n">
-        <v>3.129046447504713</v>
+        <v>3.129034546188536</v>
       </c>
       <c r="C24" s="6" t="n">
-        <v>0.04826248226419416</v>
+        <v>0.04827225002017599</v>
       </c>
     </row>
     <row r="25">
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="B25" s="6" t="n">
-        <v>2.936246761237982</v>
+        <v>2.936258640306044</v>
       </c>
       <c r="C25" s="6" t="n">
-        <v>5.218122513901835</v>
+        <v>5.218112241411155</v>
       </c>
     </row>
     <row r="26">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B26" s="6" t="n">
-        <v>-4.007081337395613</v>
+        <v>-4.007058915327999</v>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-1.082193641678564</v>
+        <v>-1.082202920540287</v>
       </c>
     </row>
     <row r="27">
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="B27" s="6" t="n">
-        <v>4.470075485021008</v>
+        <v>4.470039403842141</v>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4.213214435197266</v>
+        <v>4.213214830412637</v>
       </c>
     </row>
     <row r="28">
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B28" s="6" t="n">
-        <v>2.70343388926122</v>
+        <v>2.703445370786084</v>
       </c>
       <c r="C28" s="6" t="n">
-        <v>-0.1116951249655052</v>
+        <v>-0.1116771327411503</v>
       </c>
     </row>
     <row r="29">
@@ -1253,7 +1253,7 @@
         <v>-3.934992429462292</v>
       </c>
       <c r="C29" s="6" t="n">
-        <v>2.191425533623192</v>
+        <v>2.191407313744298</v>
       </c>
     </row>
     <row r="30">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B30" s="6" t="n">
-        <v>-3.648821444859596</v>
+        <v>-3.648810113960521</v>
       </c>
       <c r="C30" s="6" t="n">
-        <v>-3.041571586967262</v>
+        <v>-3.041563037206962</v>
       </c>
     </row>
     <row r="31">
@@ -1276,7 +1276,7 @@
         </is>
       </c>
       <c r="B31" s="6" t="n">
-        <v>-2.901903603040712</v>
+        <v>-2.901920901775545</v>
       </c>
       <c r="C31" s="6" t="n">
         <v>-3.532226698474661</v>
@@ -1289,7 +1289,7 @@
         </is>
       </c>
       <c r="B32" s="6" t="n">
-        <v>8.218760402611691</v>
+        <v>8.218766956049928</v>
       </c>
       <c r="C32" s="6" t="n">
         <v>5.60770739110501</v>
@@ -1305,7 +1305,7 @@
         <v>5.350984652444479</v>
       </c>
       <c r="C33" s="6" t="n">
-        <v>5.421010984835917</v>
+        <v>5.421002057849011</v>
       </c>
     </row>
     <row r="34">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B34" s="6" t="n">
-        <v>-0.451231160148291</v>
+        <v>-0.4512205369455291</v>
       </c>
       <c r="C34" s="6" t="n">
-        <v>4.965963542643559</v>
+        <v>4.96598089903777</v>
       </c>
     </row>
     <row r="35">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B35" s="6" t="n">
-        <v>2.986272048487226</v>
+        <v>2.986271729811563</v>
       </c>
       <c r="C35" s="6" t="n">
-        <v>3.060184134939781</v>
+        <v>3.060191955383207</v>
       </c>
     </row>
     <row r="36">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B36" s="6" t="n">
-        <v>3.378649118547727</v>
+        <v>3.378638406535805</v>
       </c>
       <c r="C36" s="6" t="n">
-        <v>5.040053548240198</v>
+        <v>5.0400371036456</v>
       </c>
     </row>
     <row r="37">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B37" s="6" t="n">
-        <v>-3.243189063410712</v>
+        <v>-3.243179040141686</v>
       </c>
       <c r="C37" s="6" t="n">
-        <v>-0.1635232002406117</v>
+        <v>-0.1635082958792888</v>
       </c>
     </row>
     <row r="38">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B38" s="6" t="n">
-        <v>5.060187694902596</v>
+        <v>5.060176811468087</v>
       </c>
       <c r="C38" s="6" t="n">
-        <v>2.468226345284008</v>
+        <v>2.468203583651496</v>
       </c>
     </row>
     <row r="39">
@@ -1383,7 +1383,7 @@
         <v>-1.826736963957687</v>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2.773715609011473</v>
+        <v>2.773730380239425</v>
       </c>
     </row>
     <row r="40">
@@ -1396,7 +1396,7 @@
         <v>2.591592085032901</v>
       </c>
       <c r="C40" s="6" t="n">
-        <v>0.3881593776181358</v>
+        <v>0.3881522621199451</v>
       </c>
     </row>
     <row r="41">
@@ -1409,7 +1409,7 @@
         <v>3.260329622971669</v>
       </c>
       <c r="C41" s="6" t="n">
-        <v>-0.4088146253977687</v>
+        <v>-0.4088216859774674</v>
       </c>
     </row>
     <row r="42">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B42" s="6" t="n">
-        <v>0.7833148439300608</v>
+        <v>0.7833243248649868</v>
       </c>
       <c r="C42" s="6" t="n">
-        <v>1.052998594423271</v>
+        <v>1.053012848203028</v>
       </c>
     </row>
     <row r="43">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B43" s="6" t="n">
-        <v>-5.273222658331722</v>
+        <v>-5.273222162266711</v>
       </c>
       <c r="C43" s="6" t="n">
-        <v>4.453586665141929</v>
+        <v>4.45357933700492</v>
       </c>
     </row>
     <row r="44">
@@ -1445,7 +1445,7 @@
         </is>
       </c>
       <c r="B44" s="6" t="n">
-        <v>-0.3155750493020859</v>
+        <v>-0.3155849488880147</v>
       </c>
       <c r="C44" s="6" t="n">
         <v>3.542978662697993</v>
@@ -1601,10 +1601,10 @@
         </is>
       </c>
       <c r="B56" s="6" t="n">
-        <v>0.04233349183160318</v>
+        <v>-1.947292178526061</v>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.3344947735191672</v>
+        <v>0.3902439024390247</v>
       </c>
     </row>
   </sheetData>
